--- a/API Test cases.xlsx
+++ b/API Test cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tech Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Test\cocktailAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3203C392-1EA8-456C-B4C3-95128E3C56DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF5DC0-FE97-4781-A59A-ED51BB46BE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D9AD0DF-D5D5-457D-980F-E62E76AF2D57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8D9AD0DF-D5D5-457D-980F-E62E76AF2D57}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases " sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -945,12 +934,19 @@
   <si>
     <t>Verify the schema of the API</t>
   </si>
+  <si>
+    <t>Automation Approach</t>
+  </si>
+  <si>
+    <t>1. BDD approach to write the non functional requirement.
+2.Non functional requirement like security , performance , concurrency can be captured with BDD approach.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,12 +961,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9.6"/>
@@ -1114,9 +1104,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1127,63 +1117,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1502,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BF347-55A4-4E45-8595-60C7EF89F955}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1533,7 +1528,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1551,7 +1546,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -1565,7 +1560,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -1579,7 +1574,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
         <v>12</v>
@@ -1593,7 +1588,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -1607,7 +1602,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1621,7 +1616,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -1635,7 +1630,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
@@ -1649,7 +1644,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6" t="s">
         <v>22</v>
@@ -1663,7 +1658,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -1677,7 +1672,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>82</v>
       </c>
@@ -1693,7 +1688,7 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
         <v>83</v>
@@ -1707,7 +1702,7 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
@@ -1721,7 +1716,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
         <v>98</v>
@@ -1735,7 +1730,7 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1752,7 +1747,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
@@ -1765,7 +1760,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>45</v>
@@ -1778,7 +1773,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>49</v>
@@ -1791,7 +1786,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>79</v>
@@ -1802,7 +1797,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="12" t="s">
         <v>88</v>
       </c>
@@ -1817,7 +1812,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8" t="s">
         <v>101</v>
@@ -1830,7 +1825,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="5"/>
       <c r="C23" s="8" t="s">
         <v>106</v>
@@ -1847,7 +1842,7 @@
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A23"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B6DBFD9D-D655-4A72-929C-E5DFE0C2BA02}"/>
   </hyperlinks>
@@ -1858,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2402E-59F2-4879-BAE1-B1FAF783E1AC}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,10 +1864,11 @@
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1881,65 +1877,71 @@
       <c r="C1" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="D1" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="D2" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
       <c r="B3" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1949,13 +1951,15 @@
       <c r="A18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="www.thecocktaildb.com/api/json/v1/1/search.php?i=vodka_x000a__x000a_" xr:uid="{E2E93E03-DEB3-4945-A57B-F5CFAF9A6E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
